--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0420/1/template_RP0420.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0420/1/template_RP0420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ_remote\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0420\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ-NEW\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0420\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBD919-1A82-484B-A010-47F94319C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204318FB-EE36-4BFA-A2B8-9E4AF13BEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>@共通用タイトル</t>
     <rPh sb="1" eb="4">
@@ -148,6 +148,28 @@
   </si>
   <si>
     <t>@NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長計件名</t>
+    <rPh sb="0" eb="4">
+      <t>チョウケイケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@長計件名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請区分</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@申請区分</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,21 +537,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O5"/>
+  <dimension ref="A2:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="11" width="13.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="3" customWidth="1"/>
+    <col min="2" max="12" width="13.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="17" width="13.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -558,34 +580,40 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -605,31 +633,37 @@
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0420/1/template_RP0420.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0420/1/template_RP0420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ-NEW\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0420\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ_remote\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0420\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204318FB-EE36-4BFA-A2B8-9E4AF13BEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBD919-1A82-484B-A010-47F94319C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>@共通用タイトル</t>
     <rPh sb="1" eb="4">
@@ -148,28 +148,6 @@
   </si>
   <si>
     <t>@NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長計件名</t>
-    <rPh sb="0" eb="4">
-      <t>チョウケイケンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@長計件名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請区分</t>
-    <rPh sb="0" eb="4">
-      <t>シンセイクブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@申請区分</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,21 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q5"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="12" width="13.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="17" width="13.25" style="3" customWidth="1"/>
+    <col min="2" max="11" width="13.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -580,40 +558,34 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -633,37 +605,31 @@
         <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
